--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_110.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_110.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,237 +488,279 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_83</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.05596868884540117</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['Ab:7', 'Ab:7', 'Db', 'Db'], ['Eb:7', 'Eb:7', 'Ab', 'Ab']]</t>
-        </is>
+          <t>isophonics_287</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_135</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1494565217391304</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:7', 'G:7', 'C', 'C'], ['D:7', 'D:7', 'G', 'G']]</t>
+          <t>[['A/3', 'D', 'A/3', 'C'], ['D', 'A', 'C', 'D']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(83.41, 87.54), (33.62, 37.76)]</t>
+          <t>[['E', 'A', 'E', 'G'], ['A', 'E', 'G', 'A']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(19.17, 23.81), (5.23, 9.89)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:01:12.504240', '0:01:15.418344'), ('0:00:28.432766', '0:00:36.803560')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:07.646772', '0:00:13.393711'), ('0:00:11.013666', '0:00:13.846500')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_180</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_215</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
-        </is>
+          <t>isophonics_171</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>jaah_29</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1396103896103896</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
+          <t>[['E', 'C', 'E']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(4.84, 93.92)]</t>
+          <t>[['Ab', 'E', 'Ab']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(7.48, 96.94)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:15.770189', '0:00:21.041118')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:09.900000', '0:00:12.910000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_57</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1859649122807017</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_140</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_5</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2848837209302326</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
+          <t>[['C:min', 'G:(3,5,b7,b9)/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(135.68755, 139.228594)]</t>
+          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(123.22, 127.18)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:31', '0:00:43.660000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:59.680000', '0:01:05.780000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_14</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2597402597402597</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_2</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1702898550724637</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>[['D:7', 'G:maj', 'D:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(63.24, 64.62)]</t>
+          <t>[['Bb:7', 'Eb/5', 'Bb:maj', 'Eb:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(66.93, 72.56)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:00:44.860000', '0:00:48')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:04:15.633000', '0:04:19.184000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_166</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2527173913043478</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G', 'D', 'G']]</t>
-        </is>
+          <t>jaah_20</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.09743589743589744</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C', 'G/3', 'C']]</t>
+          <t>[['Eb', 'F:min', 'Bb:7', 'Eb'], ['F:min', 'Bb:7', 'Eb', 'Eb']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(17.839297, 22.785147)]</t>
+          <t>[['G:maj', 'A:min/C', 'D:7', 'G:maj'], ['A:min/C', 'D:7', 'G:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(41.655, 46.22)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:06.260000', '0:00:12.340000'), ('0:00:07.120000', '0:00:14.120000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:21.660000', '0:00:28.560000'), ('0:00:05.440000', '0:00:12.420000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_78</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1609538002980626</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj'], ['A:maj/E', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_50</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Bb'], ['Bb', 'F:7', 'Bb']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(9.24, 16.18), (21.78, 25.3)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(43.56, 48.1), (49.56, 55.72)]</t>
+          <t>[('0:00:01.440000', '0:02:10.840000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>[('0:00:01.540000', '0:02:18.860000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_69</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -721,388 +768,380 @@
           <t>schubert-winterreise_153</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>0.3025210084033613</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(25.015959, 36.625937)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(58.4, 60.68)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:57.520000', '0:01:03.420000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:02.580000', '0:01:09.180000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.07542426147077311</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.606060606060606</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(1.44, 6.84)]</t>
+          <t>[['G:7', 'C', 'G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526)]</t>
+          <t>[('0:00:39.020000', '0:00:57.200000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+          <t>[('0:01:12.272131', '0:01:22.732721')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_80</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_37</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3736263736263736</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_114</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4363636363636363</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(1.24, 9.94)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(46.9, 59.1)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:06.726778', '0:00:13.147096')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1483870967741935</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(28.009637, 33.826235)]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(111.92, 115.36)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:01:00.040000', '0:01:07.080000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_203</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_165</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.09099264705882354</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G', 'D', 'D/b7']]</t>
-        </is>
+          <t>schubert-winterreise_150</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_269</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4307692307692308</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'A/5']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(55.397573, 60.285374)]</t>
+          <t>[['E', 'A:min', 'E', 'A:min', 'E', 'A:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(8.760294, 11.732448)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:00.780000', '0:00:09.740000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:41.820000', '0:00:47.891000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_263</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1277173913043478</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_139</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_144</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'F']]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'B:maj', 'B:(3,#5,7)/A#', 'G#:min', 'G#:hdim7/F#', 'C#:7/F', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(32.874217, 50.277573)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(55.935192, 62.15814)]</t>
+          <t>[('0:00:00.660000', '0:00:13.920000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:7CZiDzGVjUssMSOXrDNYHL</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
-        </is>
-      </c>
+          <t>[('0:00:00.220000', '0:00:13.100000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1083333333333333</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_91</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min']]</t>
+          <t>[['G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(10.82, 17.08)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(13.72, 18.34)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:01:18.460000', '0:01:27.700000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:01:03.040000', '0:01:05.240000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_74</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_25</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.05651340996168582</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Eb', 'Eb', 'Eb:7', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb', 'Bb', 'Bb:7', 'Eb']]</t>
+          <t>[['A:7', 'G:min/A#', 'C:7', 'F:maj', 'F:maj', 'D:min', 'G:min/A#', 'C:7', 'F:maj', 'A#:maj/F', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'C:min/D#', 'D:hdim7', 'C:min/D#', 'D:(3,b5,b7)', 'C:min/D#', 'C:min/D#', 'F:7', 'A#:min', 'C:(3,b5,b7)', 'A#:min/C#', 'D#:min/F#', 'F:hdim7', 'D#:min/F#', 'F:(3,b5,b7)', 'D#:min/F#', 'A#:min/C#', 'F:min/C', 'C:7', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'F#:maj/A#', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'C:7', 'F:min', 'F:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'G:min7/A#', 'C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A', 'A#:min', 'F:min/G#', 'A#:min', 'F:min/G#', 'G:hdim7/C#', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(18.47, 21.61)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(31.37, 40.71)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:05.060000', '0:02:03.260000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:06.040000', '0:01:50.760000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1904761904761905</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['Gb:7', 'Cb', 'Gb:7', 'Cb']]</t>
-        </is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(45.522, 50.551)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(64.48, 72.76)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_33</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>jaah_77</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2377232142857143</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C', 'G:7', 'C']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(65.44, 66.82)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(21.17, 23.45)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:58.680000', '0:01:01.260000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:24.260000', '0:00:27.200000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
